--- a/medicine/Enfance/Philip_Kerr/Philip_Kerr.xlsx
+++ b/medicine/Enfance/Philip_Kerr/Philip_Kerr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philip Ballantyne Kerr, né le 22 février 1956 à Édimbourg (Écosse) et mort le 23 mars 2018[1],[2],[3] à Londres, est un auteur britannique de roman policier et de littérature d'enfance et de jeunesse.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philip Ballantyne Kerr, né le 22 février 1956 à Édimbourg (Écosse) et mort le 23 mars 2018 à Londres, est un auteur britannique de roman policier et de littérature d'enfance et de jeunesse.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Philip Kerr étudie à l'université de Birmingham de 1974 à 1980 et obtient des diplômes de maîtrise en droit et en philosophie. Il travaille un temps comme rédacteur publicitaire pour l'agence Saatchi and Saatchi avant de devenir journaliste indépendant, puis écrivain de romans policiers en 1989. Le succès de sa Trilogie berlinoise (Berlin Noir), ayant pour héros Bernhard Gunther, un enquêteur privé surnommé Bernie, dont les aventures ont pour cadre l'Allemagne nazie, le pousse à se consacrer à l'écriture à temps plein. Alors qu'il avait annoncé la fin de Gunther après la publication de la trilogie, il lui consacre de nouvelles aventures à partir de 2006.
 En 2015, avec Le Mercato d'hiver (January Window), il entame un nouveau cycle ayant pour héros un entraîneur de football, Scott Manson.
@@ -549,9 +563,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Bernie Gunther
-L'Été de cristal, Masque, coll. « Le Masque » no 2133, 1993 ((en) March Violets, 1989), trad. Gilles Berton  (ISBN 2-7024-2361-2)Se déroule en 1936. Réédition, Le Livre de poche no 13745, 1995 ; réédition dans Philip Kerr vol. 1, Masque, coll. « Intégrale du Masque », 1998  (ISBN 2-7024-2914-9) ; réédition dans une traduction révisée dans La Trilogie berlinoise, Le Livre de poche no 31644, 2010  (ISBN 978-2-253-12843-4)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Bernie Gunther</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'Été de cristal, Masque, coll. « Le Masque » no 2133, 1993 ((en) March Violets, 1989), trad. Gilles Berton  (ISBN 2-7024-2361-2)Se déroule en 1936. Réédition, Le Livre de poche no 13745, 1995 ; réédition dans Philip Kerr vol. 1, Masque, coll. « Intégrale du Masque », 1998  (ISBN 2-7024-2914-9) ; réédition dans une traduction révisée dans La Trilogie berlinoise, Le Livre de poche no 31644, 2010  (ISBN 978-2-253-12843-4)
 La Pâle Figure, Masque, coll. « Grands formats », 1994 ((en) The Pale Criminal, 1990), trad. Gilles Berton  (ISBN 2-7024-2426-0)Se déroule en 1938. Réédition, Le Livre de poche no 13955, 1996 ; réédition dans Philip Kerr vol. 1, Masque, coll. « Intégrale du Masque », 1998  (ISBN 2-7024-2914-9) ; réédition dans une traduction révisée dans La Trilogie berlinoise, Le Livre de poche no 31644, 2010  (ISBN 978-2-253-12843-4)
 Un requiem allemand, Masque, coll. « Grands formats », 1995 ((en) A German Requiem, 1991), trad. Gilles Berton  (ISBN 2-7024-2419-8)Se déroule en 1947-1948. Réédition, Le Livre de poche no 14012, 1996  (ISBN 2-253-14012-0) ; réédition dans Philip Kerr vol. 1, Masque, coll. « Intégrale du Masque », 1998  (ISBN 2-7024-2914-9) ; réédition dans une traduction révisée dans La Trilogie berlinoise, Le Livre de poche no 31644, 2010  (ISBN 978-2-253-12843-4)
 La Mort, entre autres, Masque, 2009 ((en) The One From the Other, 2006), trad. Johan-Frederik Hel Guedj  (ISBN 978-2-7024-3314-0)Se déroule en 1949 après un prologue situé en 1937. Réédition, Le Livre de poche no 32077, 2011  (ISBN 978-2-253-12852-6)
@@ -564,114 +586,306 @@
 Les Pièges de l'exil, Seuil, 2017 ((en) The Other Side of Silence, 2016), trad. Philippe Bonnet  (ISBN 978-2-021-33993-2)Se déroule en 1956. Réédition, Points, coll. « Points policier » no P4801, 2018  (ISBN 978-2-7578-7130-0)
 Bleu de Prusse, Seuil, 2018 ((en) Prussian Blue, 2017), trad. Jean Esch  (ISBN 978-2-021-34074-7)Se déroule en 1939 après un prologue situé en 1956. Réédition, Points, coll. « Points policier » no P4965, 2019  (ISBN 978-2-7578-7549-0)
 L'Offrande grecque, Seuil, 2019 ((en) Greeks Bearing Gifts, 2018)  (ISBN 978-2-021-34068-6)Se déroule en 1957. Réédition, Points Policiers n°5286, 5 novembre 2020  (ISBN 978-2-7578-8093-7)
-Metropolis, Seuil, 2019 ((en) Metropolis, 2019)Se déroule en 1928.Série Bernie Gunther par ordre chronologique : 14, 6', 1, 2, 12', 8, 9, 10, 3, 4, 5, 6", 7, 11, 12" et 13
-Série Scott Manson
-Le Mercato d'hiver, Masque, 2016 ((en) January Window, 2014)  (ISBN 978-2702441572)
+Metropolis, Seuil, 2019 ((en) Metropolis, 2019)Se déroule en 1928.Série Bernie Gunther par ordre chronologique : 14, 6', 1, 2, 12', 8, 9, 10, 3, 4, 5, 6", 7, 11, 12" et 13</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Philip_Kerr</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philip_Kerr</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Scott Manson</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Mercato d'hiver, Masque, 2016 ((en) January Window, 2014)  (ISBN 978-2702441572)
 La Main de Dieu, Masque, 2016 ((en) Hand of God, 2015)  (ISBN 978-2702441589)
-La Feinte de l'attaquant, Masque, 2017 ((en) False Nine, 2015)  (ISBN 978-2702448519)
-Autres romans
-Une enquête philosophique, Seuil, 1994 ((en) A Philosophical Investigation, 1992), trad. Claude Demanuelli  (ISBN 978-2-0201-9892-9)Réédition, Seuil, coll. « Points » no 244, 1996 ; réédition, Éditions du Masque, 2011
+La Feinte de l'attaquant, Masque, 2017 ((en) False Nine, 2015)  (ISBN 978-2702448519)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Philip_Kerr</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philip_Kerr</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Une enquête philosophique, Seuil, 1994 ((en) A Philosophical Investigation, 1992), trad. Claude Demanuelli  (ISBN 978-2-0201-9892-9)Réédition, Seuil, coll. « Points » no 244, 1996 ; réédition, Éditions du Masque, 2011
 Chambres froides, Éditions du Masque, coll. « Le Masque » no 2169, 1994 ((en) Dead Meat ou Grushko, 1993), trad. Laurence Kiefé  (ISBN 978-270-242436-0)Réédition, Éditions du Masque, coll. « Masque Poche » no 3, 2012
 La Tour d'Abraham, Éditions du Masque, 1996 ((en) Gridiron ou The Grid, 1995), trad. Gilles Berton  (ISBN 978-270-247845-5)
 Ésaü ou le Chaînon manquant, Éditions du Masque, coll. « Grands Formats », 1997 ((en) Esau, 1996), trad. Annie Hamel  (ISBN 978-270-247860-8)
 Cinq ans de réflexion, Éditions du Masque, 1998 ((en) A Five Year, 1998)Réédition, Le Livre de poche no 17081, 1999
 Le Sang des hommes, Éditions du Masque, 1999 ((en) The Second Angel, 1998), trad. Pascal Loubet  (ISBN 978-270-247886-8)Réédition, Le Livre de poche no 17111, 2000
 Impact, Masque, coll. « Grands Formats », 2000 ((en) The Shot, 1999), trad. Pascal Loubet  (ISBN 978-2702479292)Réédition, Le Livre de poche no 17205, 2001 ; réédition, Masque, coll. « Masque poche » no 32, 2013
-Le Chiffre de l'alchimiste, Éditions du Masque, coll. « Grands Formats », 2004 ((en) Dark Matter: The Private Life of Sir Isaac Newton, 2002), trad. Gilles Berton  (ISBN 2-7024-3204-2)Réédition, Éditions du Masque, coll. « Labyrinthes » no 162[4], 2007  (ISBN 978-270-243380-5)
+Le Chiffre de l'alchimiste, Éditions du Masque, coll. « Grands Formats », 2004 ((en) Dark Matter: The Private Life of Sir Isaac Newton, 2002), trad. Gilles Berton  (ISBN 2-7024-3204-2)Réédition, Éditions du Masque, coll. « Labyrinthes » no 162, 2007  (ISBN 978-270-243380-5)
 La Paix des dupes, Éditions du Masque, coll. « Grands Formats », 2007 ((en) Hitler's Peace, 2005), trad. Johan-Frédérik Hel Guedj  (ISBN 978-270-243174-0)Réédition, Le Livre de poche no 17081, 2012
-Pénitence, Éditions du Masque, coll. « Grands Formats », 2017 ((en) Prayer, 2013), trad. Philippe Bonnet  (ISBN 978-2-702-44111-4)Réédition, Éditions du Masque, coll. « Masque poche », 2019
-Romans pour les enfants
-Série Les Enfants de la lampe magique
-Le Secret d'Akhenaton, Bayard Jeunesse, 2006 ((en) The Akhenaten Adventure, 2004), trad. Pascale Jusforgues  (ISBN 978-2747022576)
+Pénitence, Éditions du Masque, coll. « Grands Formats », 2017 ((en) Prayer, 2013), trad. Philippe Bonnet  (ISBN 978-2-702-44111-4)Réédition, Éditions du Masque, coll. « Masque poche », 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Philip_Kerr</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philip_Kerr</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans pour les enfants</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Les Enfants de la lampe magique</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Secret d'Akhenaton, Bayard Jeunesse, 2006 ((en) The Akhenaten Adventure, 2004), trad. Pascale Jusforgues  (ISBN 978-2747022576)
 Le Djinn bleu de Babylone, Bayard Jeunesse, 2006 ((en) The Blue Djinn of Babylon, 2005), trad. Pascale Jusforgues  (ISBN 978-2747020466)
 Le Cobra de Katmandou, Bayard Jeunesse, 2007 ((en) The Cobra King of Kathmandu, 2006), trad. Pascale Jusforgues  (ISBN 978-2747021753)
 Le Réveil de l'armée fantôme, Bayard Jeunesse, 2009 ((en) The Day of the Djinn Warriors, 2007), trad. Pascale Jusforgues  (ISBN 978-2747028875)
 L'Œil de la forêt, Bayard Jeunesse, 2011 ((en) The Eye of the Forest, 2009), trad. Pascale Jusforgues  (ISBN 978-2747029704)
 (en) The Five Fakirs of Faizabad, 2010
-(en) The Grave Robbers of Genghis Khan, 2011
-Autre roman
-(en) One Small Step, 2008</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Philip_Kerr</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Philip_Kerr</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+(en) The Grave Robbers of Genghis Khan, 2011</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Philip_Kerr</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philip_Kerr</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans pour les enfants</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Autre roman</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(en) One Small Step, 2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Philip_Kerr</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philip_Kerr</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix
-Prix du roman d'aventures 1993 pour L'Été de cristal
-Prix Mystère de la critique 1994 pour L'Été de cristal, catégorie meilleur roman étranger[5]
-Prix du polar européen 2009 pour La Mort, entre autres[6]
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Prix du roman d'aventures 1993 pour L'Été de cristal
+Prix Mystère de la critique 1994 pour L'Été de cristal, catégorie meilleur roman étranger
+Prix du polar européen 2009 pour La Mort, entre autres
 Prix des lecteurs du Livre de poche, catégorie policier-thriller 2010 pour La Trilogie berlinoise
-CWA Historical Dagger (en) 2009 pour Hôtel Adlon (If the Dead Rise Not)[7]
-RBA Prize for Crime Writing (en) 2009 pour Hôtel Adlon (If the Dead Rise Not)[8]
-Prix Barry 2010 pour Hôtel Adlon (If the Dead Rise Not)[9]
-Prix Palle-Rosenkrantz 2014 pour Les Ombres de Katyn[10]
-Nominations
-Prix New Blood Dagger 1989 pour March Violets[7]
-Pris Dagger 1993 pour Dead Meat[7]
-Prix Historical Dagger 2007 pour The One from the Other[7]
-Prix Historical Dagger 2008 pour A Quiet Flame[7]
-Prix Shamus 2011 du meilleur roman pour If the Dead Rise Not[11]
-Prix Edgar-Allan-Poe 2012 du meilleur roman pour Field Grey[12]
-Prix Historical Dagger 2012 pour Prague Fatale[7]
-Prix Edgar-Allan-Poe 2016 du meilleur roman pour The Lady from Zagreb[12]
-Prix Macavity 2016 du meilleur roman historique pour The Lady from Zagreb[13]
-Prix Historical Dagger 2016 pour The Other Side of Silence[7]
-Prix Edgar-Allan-Poe 2018 du meilleur roman pour Prussian Blue[12]
-Prix Barry 2018 du meilleur roman pour Prussian Blue[9]
-Prix Barry 2020 du meilleur roman pour Metropolis[9]
-Prix Historical Dagger 2020 pour Metropolis[7]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Philip_Kerr</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Philip_Kerr</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+CWA Historical Dagger (en) 2009 pour Hôtel Adlon (If the Dead Rise Not)
+RBA Prize for Crime Writing (en) 2009 pour Hôtel Adlon (If the Dead Rise Not)
+Prix Barry 2010 pour Hôtel Adlon (If the Dead Rise Not)
+Prix Palle-Rosenkrantz 2014 pour Les Ombres de Katyn</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Philip_Kerr</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philip_Kerr</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Prix New Blood Dagger 1989 pour March Violets
+Pris Dagger 1993 pour Dead Meat
+Prix Historical Dagger 2007 pour The One from the Other
+Prix Historical Dagger 2008 pour A Quiet Flame
+Prix Shamus 2011 du meilleur roman pour If the Dead Rise Not
+Prix Edgar-Allan-Poe 2012 du meilleur roman pour Field Grey
+Prix Historical Dagger 2012 pour Prague Fatale
+Prix Edgar-Allan-Poe 2016 du meilleur roman pour The Lady from Zagreb
+Prix Macavity 2016 du meilleur roman historique pour The Lady from Zagreb
+Prix Historical Dagger 2016 pour The Other Side of Silence
+Prix Edgar-Allan-Poe 2018 du meilleur roman pour Prussian Blue
+Prix Barry 2018 du meilleur roman pour Prussian Blue
+Prix Barry 2020 du meilleur roman pour Metropolis
+Prix Historical Dagger 2020 pour Metropolis</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Philip_Kerr</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Philip_Kerr</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Claude Mesplède (dir.), Dictionnaire des littératures policières, vol. 2 : J - Z, Nantes, Joseph K, coll. « Temps noir », 2007, 1086 p. (ISBN 978-2-910-68645-1, OCLC 315873361), p. 91-92.</t>
         </is>
